--- a/resource/RolesOfLeadershipDetail.xlsx
+++ b/resource/RolesOfLeadershipDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="15240" windowHeight="7560" tabRatio="527"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="15240" windowHeight="7560" tabRatio="527" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pathfindings" sheetId="28" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -740,6 +740,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -755,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -858,37 +865,11 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,41 +888,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -952,36 +903,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,38 +917,14 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1035,14 +932,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,8 +1437,8 @@
   </sheetPr>
   <dimension ref="B1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:K7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1559,33 +1459,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s" ph="1">
+      <c r="B1" s="4" t="s" ph="1">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s" ph="1">
+      <c r="C1" s="10" t="s" ph="1">
         <v>3</v>
       </c>
-      <c r="D1" s="31" ph="1"/>
-      <c r="E1" s="31" ph="1"/>
-      <c r="F1" s="31" ph="1"/>
-      <c r="G1" s="31" ph="1"/>
-      <c r="H1" s="31" ph="1"/>
-      <c r="I1" s="31" ph="1"/>
-      <c r="J1" s="31" ph="1"/>
-      <c r="K1" s="31" ph="1"/>
-      <c r="L1" s="15" t="s" ph="1">
+      <c r="D1" s="10" ph="1"/>
+      <c r="E1" s="10" ph="1"/>
+      <c r="F1" s="10" ph="1"/>
+      <c r="G1" s="10" ph="1"/>
+      <c r="H1" s="10" ph="1"/>
+      <c r="I1" s="10" ph="1"/>
+      <c r="J1" s="10" ph="1"/>
+      <c r="K1" s="10" ph="1"/>
+      <c r="L1" s="5" t="s" ph="1">
         <v>42</v>
       </c>
-      <c r="M1" s="15" t="s" ph="1">
+      <c r="M1" s="5" t="s" ph="1">
         <v>1</v>
       </c>
-      <c r="N1" s="15" t="s" ph="1">
+      <c r="N1" s="5" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="O1" s="19" t="s" ph="1">
+      <c r="O1" s="8" t="s" ph="1">
         <v>43</v>
       </c>
-      <c r="P1" s="21" t="s" ph="1">
+      <c r="P1" s="9" t="s" ph="1">
         <v>41</v>
       </c>
       <c r="Q1" s="1"/>
@@ -1594,341 +1494,341 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="2:22" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" ph="1">
+      <c r="B2" s="6" ph="1">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s" ph="1">
+      <c r="C2" s="11" t="s" ph="1">
         <v>21</v>
       </c>
-      <c r="D2" s="29" ph="1"/>
-      <c r="E2" s="29" ph="1"/>
-      <c r="F2" s="29" ph="1"/>
-      <c r="G2" s="29" ph="1"/>
-      <c r="H2" s="29" ph="1"/>
-      <c r="I2" s="29" ph="1"/>
-      <c r="J2" s="29" ph="1"/>
-      <c r="K2" s="29" ph="1"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="26"/>
+      <c r="D2" s="11" ph="1"/>
+      <c r="E2" s="11" ph="1"/>
+      <c r="F2" s="11" ph="1"/>
+      <c r="G2" s="11" ph="1"/>
+      <c r="H2" s="11" ph="1"/>
+      <c r="I2" s="11" ph="1"/>
+      <c r="J2" s="11" ph="1"/>
+      <c r="K2" s="11" ph="1"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" ph="1">
+      <c r="B3" s="6" ph="1">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s" ph="1">
+      <c r="C3" s="11" t="s" ph="1">
         <v>22</v>
       </c>
-      <c r="D3" s="29" ph="1"/>
-      <c r="E3" s="29" ph="1"/>
-      <c r="F3" s="29" ph="1"/>
-      <c r="G3" s="29" ph="1"/>
-      <c r="H3" s="29" ph="1"/>
-      <c r="I3" s="29" ph="1"/>
-      <c r="J3" s="29" ph="1"/>
-      <c r="K3" s="29" ph="1"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="26"/>
+      <c r="D3" s="11" ph="1"/>
+      <c r="E3" s="11" ph="1"/>
+      <c r="F3" s="11" ph="1"/>
+      <c r="G3" s="11" ph="1"/>
+      <c r="H3" s="11" ph="1"/>
+      <c r="I3" s="11" ph="1"/>
+      <c r="J3" s="11" ph="1"/>
+      <c r="K3" s="11" ph="1"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" ph="1">
+      <c r="B4" s="6" ph="1">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s" ph="1">
+      <c r="C4" s="11" t="s" ph="1">
         <v>27</v>
       </c>
-      <c r="D4" s="29" ph="1"/>
-      <c r="E4" s="29" ph="1"/>
-      <c r="F4" s="29" ph="1"/>
-      <c r="G4" s="29" ph="1"/>
-      <c r="H4" s="29" ph="1"/>
-      <c r="I4" s="29" ph="1"/>
-      <c r="J4" s="29" ph="1"/>
-      <c r="K4" s="29" ph="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="26"/>
+      <c r="D4" s="11" ph="1"/>
+      <c r="E4" s="11" ph="1"/>
+      <c r="F4" s="11" ph="1"/>
+      <c r="G4" s="11" ph="1"/>
+      <c r="H4" s="11" ph="1"/>
+      <c r="I4" s="11" ph="1"/>
+      <c r="J4" s="11" ph="1"/>
+      <c r="K4" s="11" ph="1"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" ph="1">
+      <c r="B5" s="6" ph="1">
         <v>4</v>
       </c>
-      <c r="C5" s="29" t="s" ph="1">
+      <c r="C5" s="11" t="s" ph="1">
         <v>28</v>
       </c>
-      <c r="D5" s="29" ph="1"/>
-      <c r="E5" s="29" ph="1"/>
-      <c r="F5" s="29" ph="1"/>
-      <c r="G5" s="29" ph="1"/>
-      <c r="H5" s="29" ph="1"/>
-      <c r="I5" s="29" ph="1"/>
-      <c r="J5" s="29" ph="1"/>
-      <c r="K5" s="29" ph="1"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="26"/>
+      <c r="D5" s="11" ph="1"/>
+      <c r="E5" s="11" ph="1"/>
+      <c r="F5" s="11" ph="1"/>
+      <c r="G5" s="11" ph="1"/>
+      <c r="H5" s="11" ph="1"/>
+      <c r="I5" s="11" ph="1"/>
+      <c r="J5" s="11" ph="1"/>
+      <c r="K5" s="11" ph="1"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" ph="1">
+      <c r="B6" s="6" ph="1">
         <v>5</v>
       </c>
-      <c r="C6" s="29" t="s" ph="1">
+      <c r="C6" s="11" t="s" ph="1">
         <v>29</v>
       </c>
-      <c r="D6" s="29" ph="1"/>
-      <c r="E6" s="29" ph="1"/>
-      <c r="F6" s="29" ph="1"/>
-      <c r="G6" s="29" ph="1"/>
-      <c r="H6" s="29" ph="1"/>
-      <c r="I6" s="29" ph="1"/>
-      <c r="J6" s="29" ph="1"/>
-      <c r="K6" s="29" ph="1"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="26"/>
+      <c r="D6" s="11" ph="1"/>
+      <c r="E6" s="11" ph="1"/>
+      <c r="F6" s="11" ph="1"/>
+      <c r="G6" s="11" ph="1"/>
+      <c r="H6" s="11" ph="1"/>
+      <c r="I6" s="11" ph="1"/>
+      <c r="J6" s="11" ph="1"/>
+      <c r="K6" s="11" ph="1"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" ph="1">
+      <c r="B7" s="6" ph="1">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s" ph="1">
+      <c r="C7" s="11" t="s" ph="1">
         <v>30</v>
       </c>
-      <c r="D7" s="29" ph="1"/>
-      <c r="E7" s="29" ph="1"/>
-      <c r="F7" s="29" ph="1"/>
-      <c r="G7" s="29" ph="1"/>
-      <c r="H7" s="29" ph="1"/>
-      <c r="I7" s="29" ph="1"/>
-      <c r="J7" s="29" ph="1"/>
-      <c r="K7" s="29" ph="1"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="27"/>
+      <c r="D7" s="11" ph="1"/>
+      <c r="E7" s="11" ph="1"/>
+      <c r="F7" s="11" ph="1"/>
+      <c r="G7" s="11" ph="1"/>
+      <c r="H7" s="11" ph="1"/>
+      <c r="I7" s="11" ph="1"/>
+      <c r="J7" s="11" ph="1"/>
+      <c r="K7" s="11" ph="1"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" ph="1">
+      <c r="B8" s="6" ph="1">
         <v>7</v>
       </c>
-      <c r="C8" s="29" t="s" ph="1">
+      <c r="C8" s="11" t="s" ph="1">
         <v>31</v>
       </c>
-      <c r="D8" s="29" ph="1"/>
-      <c r="E8" s="29" ph="1"/>
-      <c r="F8" s="29" ph="1"/>
-      <c r="G8" s="29" ph="1"/>
-      <c r="H8" s="29" ph="1"/>
-      <c r="I8" s="29" ph="1"/>
-      <c r="J8" s="29" ph="1"/>
-      <c r="K8" s="29" ph="1"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="27"/>
+      <c r="D8" s="11" ph="1"/>
+      <c r="E8" s="11" ph="1"/>
+      <c r="F8" s="11" ph="1"/>
+      <c r="G8" s="11" ph="1"/>
+      <c r="H8" s="11" ph="1"/>
+      <c r="I8" s="11" ph="1"/>
+      <c r="J8" s="11" ph="1"/>
+      <c r="K8" s="11" ph="1"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" ph="1">
+      <c r="B9" s="6" ph="1">
         <v>8</v>
       </c>
-      <c r="C9" s="29" t="s" ph="1">
+      <c r="C9" s="11" t="s" ph="1">
         <v>32</v>
       </c>
-      <c r="D9" s="29" ph="1"/>
-      <c r="E9" s="29" ph="1"/>
-      <c r="F9" s="29" ph="1"/>
-      <c r="G9" s="29" ph="1"/>
-      <c r="H9" s="29" ph="1"/>
-      <c r="I9" s="29" ph="1"/>
-      <c r="J9" s="29" ph="1"/>
-      <c r="K9" s="29" ph="1"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="27"/>
+      <c r="D9" s="11" ph="1"/>
+      <c r="E9" s="11" ph="1"/>
+      <c r="F9" s="11" ph="1"/>
+      <c r="G9" s="11" ph="1"/>
+      <c r="H9" s="11" ph="1"/>
+      <c r="I9" s="11" ph="1"/>
+      <c r="J9" s="11" ph="1"/>
+      <c r="K9" s="11" ph="1"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" ph="1">
+      <c r="B10" s="6" ph="1">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s" ph="1">
+      <c r="C10" s="11" t="s" ph="1">
         <v>33</v>
       </c>
-      <c r="D10" s="29" ph="1"/>
-      <c r="E10" s="29" ph="1"/>
-      <c r="F10" s="29" ph="1"/>
-      <c r="G10" s="29" ph="1"/>
-      <c r="H10" s="29" ph="1"/>
-      <c r="I10" s="29" ph="1"/>
-      <c r="J10" s="29" ph="1"/>
-      <c r="K10" s="29" ph="1"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="27"/>
+      <c r="D10" s="11" ph="1"/>
+      <c r="E10" s="11" ph="1"/>
+      <c r="F10" s="11" ph="1"/>
+      <c r="G10" s="11" ph="1"/>
+      <c r="H10" s="11" ph="1"/>
+      <c r="I10" s="11" ph="1"/>
+      <c r="J10" s="11" ph="1"/>
+      <c r="K10" s="11" ph="1"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" ph="1">
+      <c r="B11" s="6" ph="1">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s" ph="1">
+      <c r="C11" s="11" t="s" ph="1">
         <v>34</v>
       </c>
-      <c r="D11" s="29" ph="1"/>
-      <c r="E11" s="29" ph="1"/>
-      <c r="F11" s="29" ph="1"/>
-      <c r="G11" s="29" ph="1"/>
-      <c r="H11" s="29" ph="1"/>
-      <c r="I11" s="29" ph="1"/>
-      <c r="J11" s="29" ph="1"/>
-      <c r="K11" s="29" ph="1"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="27"/>
+      <c r="D11" s="11" ph="1"/>
+      <c r="E11" s="11" ph="1"/>
+      <c r="F11" s="11" ph="1"/>
+      <c r="G11" s="11" ph="1"/>
+      <c r="H11" s="11" ph="1"/>
+      <c r="I11" s="11" ph="1"/>
+      <c r="J11" s="11" ph="1"/>
+      <c r="K11" s="11" ph="1"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" ph="1">
+      <c r="B12" s="6" ph="1">
         <v>11</v>
       </c>
-      <c r="C12" s="29" t="s" ph="1">
+      <c r="C12" s="11" t="s" ph="1">
         <v>35</v>
       </c>
-      <c r="D12" s="29" ph="1"/>
-      <c r="E12" s="29" ph="1"/>
-      <c r="F12" s="29" ph="1"/>
-      <c r="G12" s="29" ph="1"/>
-      <c r="H12" s="29" ph="1"/>
-      <c r="I12" s="29" ph="1"/>
-      <c r="J12" s="29" ph="1"/>
-      <c r="K12" s="29" ph="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="27"/>
+      <c r="D12" s="11" ph="1"/>
+      <c r="E12" s="11" ph="1"/>
+      <c r="F12" s="11" ph="1"/>
+      <c r="G12" s="11" ph="1"/>
+      <c r="H12" s="11" ph="1"/>
+      <c r="I12" s="11" ph="1"/>
+      <c r="J12" s="11" ph="1"/>
+      <c r="K12" s="11" ph="1"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" ph="1">
+      <c r="B13" s="6" ph="1">
         <v>12</v>
       </c>
-      <c r="C13" s="29" t="s" ph="1">
+      <c r="C13" s="11" t="s" ph="1">
         <v>23</v>
       </c>
-      <c r="D13" s="29" ph="1"/>
-      <c r="E13" s="29" ph="1"/>
-      <c r="F13" s="29" ph="1"/>
-      <c r="G13" s="29" ph="1"/>
-      <c r="H13" s="29" ph="1"/>
-      <c r="I13" s="29" ph="1"/>
-      <c r="J13" s="29" ph="1"/>
-      <c r="K13" s="29" ph="1"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="27"/>
+      <c r="D13" s="11" ph="1"/>
+      <c r="E13" s="11" ph="1"/>
+      <c r="F13" s="11" ph="1"/>
+      <c r="G13" s="11" ph="1"/>
+      <c r="H13" s="11" ph="1"/>
+      <c r="I13" s="11" ph="1"/>
+      <c r="J13" s="11" ph="1"/>
+      <c r="K13" s="11" ph="1"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" ph="1">
+      <c r="B14" s="6" ph="1">
         <v>13</v>
       </c>
-      <c r="C14" s="29" t="s" ph="1">
+      <c r="C14" s="11" t="s" ph="1">
         <v>36</v>
       </c>
-      <c r="D14" s="29" ph="1"/>
-      <c r="E14" s="29" ph="1"/>
-      <c r="F14" s="29" ph="1"/>
-      <c r="G14" s="29" ph="1"/>
-      <c r="H14" s="29" ph="1"/>
-      <c r="I14" s="29" ph="1"/>
-      <c r="J14" s="29" ph="1"/>
-      <c r="K14" s="29" ph="1"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="27"/>
+      <c r="D14" s="11" ph="1"/>
+      <c r="E14" s="11" ph="1"/>
+      <c r="F14" s="11" ph="1"/>
+      <c r="G14" s="11" ph="1"/>
+      <c r="H14" s="11" ph="1"/>
+      <c r="I14" s="11" ph="1"/>
+      <c r="J14" s="11" ph="1"/>
+      <c r="K14" s="11" ph="1"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" ph="1">
+      <c r="B15" s="6" ph="1">
         <v>14</v>
       </c>
-      <c r="C15" s="29" t="s" ph="1">
+      <c r="C15" s="11" t="s" ph="1">
         <v>37</v>
       </c>
-      <c r="D15" s="29" ph="1"/>
-      <c r="E15" s="29" ph="1"/>
-      <c r="F15" s="29" ph="1"/>
-      <c r="G15" s="29" ph="1"/>
-      <c r="H15" s="29" ph="1"/>
-      <c r="I15" s="29" ph="1"/>
-      <c r="J15" s="29" ph="1"/>
-      <c r="K15" s="29" ph="1"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="27"/>
+      <c r="D15" s="11" ph="1"/>
+      <c r="E15" s="11" ph="1"/>
+      <c r="F15" s="11" ph="1"/>
+      <c r="G15" s="11" ph="1"/>
+      <c r="H15" s="11" ph="1"/>
+      <c r="I15" s="11" ph="1"/>
+      <c r="J15" s="11" ph="1"/>
+      <c r="K15" s="11" ph="1"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="17" ph="1">
+      <c r="B16" s="7" ph="1">
         <v>15</v>
       </c>
-      <c r="C16" s="30" t="s" ph="1">
+      <c r="C16" s="12" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="D16" s="30" ph="1"/>
-      <c r="E16" s="30" ph="1"/>
-      <c r="F16" s="30" ph="1"/>
-      <c r="G16" s="30" ph="1"/>
-      <c r="H16" s="30" ph="1"/>
-      <c r="I16" s="30" ph="1"/>
-      <c r="J16" s="30" ph="1"/>
-      <c r="K16" s="30" ph="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="28"/>
+      <c r="D16" s="12" ph="1"/>
+      <c r="E16" s="12" ph="1"/>
+      <c r="F16" s="12" ph="1"/>
+      <c r="G16" s="12" ph="1"/>
+      <c r="H16" s="12" ph="1"/>
+      <c r="I16" s="12" ph="1"/>
+      <c r="J16" s="12" ph="1"/>
+      <c r="K16" s="12" ph="1"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
@@ -2532,7 +2432,7 @@
       <c r="J66" s="1" ph="1"/>
       <c r="K66" s="1" ph="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" ph="1"/>
       <c r="C67" s="1" ph="1"/>
       <c r="D67" s="1" ph="1"/>
@@ -2685,7 +2585,7 @@
   <dimension ref="B1:V75"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2705,33 +2605,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s" ph="1">
+      <c r="B1" s="4" t="s" ph="1">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s" ph="1">
+      <c r="C1" s="10" t="s" ph="1">
         <v>3</v>
       </c>
-      <c r="D1" s="31" ph="1"/>
-      <c r="E1" s="31" ph="1"/>
-      <c r="F1" s="31" ph="1"/>
-      <c r="G1" s="31" ph="1"/>
-      <c r="H1" s="31" ph="1"/>
-      <c r="I1" s="31" ph="1"/>
-      <c r="J1" s="31" ph="1"/>
-      <c r="K1" s="31" ph="1"/>
-      <c r="L1" s="15" t="s" ph="1">
+      <c r="D1" s="10" ph="1"/>
+      <c r="E1" s="10" ph="1"/>
+      <c r="F1" s="10" ph="1"/>
+      <c r="G1" s="10" ph="1"/>
+      <c r="H1" s="10" ph="1"/>
+      <c r="I1" s="10" ph="1"/>
+      <c r="J1" s="10" ph="1"/>
+      <c r="K1" s="10" ph="1"/>
+      <c r="L1" s="5" t="s" ph="1">
         <v>42</v>
       </c>
-      <c r="M1" s="15" t="s" ph="1">
+      <c r="M1" s="5" t="s" ph="1">
         <v>1</v>
       </c>
-      <c r="N1" s="15" t="s" ph="1">
+      <c r="N1" s="5" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="O1" s="19" t="s" ph="1">
+      <c r="O1" s="8" t="s" ph="1">
         <v>43</v>
       </c>
-      <c r="P1" s="21" t="s" ph="1">
+      <c r="P1" s="9" t="s" ph="1">
         <v>41</v>
       </c>
       <c r="Q1" s="1"/>
@@ -2740,497 +2640,497 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="2:22" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <v>16</v>
       </c>
-      <c r="C2" s="32" t="s" ph="1">
+      <c r="C2" s="13" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="D2" s="29" ph="1"/>
-      <c r="E2" s="29" ph="1"/>
-      <c r="F2" s="29" ph="1"/>
-      <c r="G2" s="29" ph="1"/>
-      <c r="H2" s="29" ph="1"/>
-      <c r="I2" s="29" ph="1"/>
-      <c r="J2" s="29" ph="1"/>
-      <c r="K2" s="29" ph="1"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="22"/>
+      <c r="D2" s="11" ph="1"/>
+      <c r="E2" s="11" ph="1"/>
+      <c r="F2" s="11" ph="1"/>
+      <c r="G2" s="11" ph="1"/>
+      <c r="H2" s="11" ph="1"/>
+      <c r="I2" s="11" ph="1"/>
+      <c r="J2" s="11" ph="1"/>
+      <c r="K2" s="11" ph="1"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <v>17</v>
       </c>
-      <c r="C3" s="32" t="s" ph="1">
+      <c r="C3" s="13" t="s" ph="1">
         <v>25</v>
       </c>
-      <c r="D3" s="29" ph="1"/>
-      <c r="E3" s="29" ph="1"/>
-      <c r="F3" s="29" ph="1"/>
-      <c r="G3" s="29" ph="1"/>
-      <c r="H3" s="29" ph="1"/>
-      <c r="I3" s="29" ph="1"/>
-      <c r="J3" s="29" ph="1"/>
-      <c r="K3" s="29" ph="1"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="22"/>
+      <c r="D3" s="11" ph="1"/>
+      <c r="E3" s="11" ph="1"/>
+      <c r="F3" s="11" ph="1"/>
+      <c r="G3" s="11" ph="1"/>
+      <c r="H3" s="11" ph="1"/>
+      <c r="I3" s="11" ph="1"/>
+      <c r="J3" s="11" ph="1"/>
+      <c r="K3" s="11" ph="1"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16">
+      <c r="B4" s="6">
         <v>18</v>
       </c>
-      <c r="C4" s="32" t="s" ph="1">
+      <c r="C4" s="13" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D4" s="29" ph="1"/>
-      <c r="E4" s="29" ph="1"/>
-      <c r="F4" s="29" ph="1"/>
-      <c r="G4" s="29" ph="1"/>
-      <c r="H4" s="29" ph="1"/>
-      <c r="I4" s="29" ph="1"/>
-      <c r="J4" s="29" ph="1"/>
-      <c r="K4" s="29" ph="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="22"/>
+      <c r="D4" s="11" ph="1"/>
+      <c r="E4" s="11" ph="1"/>
+      <c r="F4" s="11" ph="1"/>
+      <c r="G4" s="11" ph="1"/>
+      <c r="H4" s="11" ph="1"/>
+      <c r="I4" s="11" ph="1"/>
+      <c r="J4" s="11" ph="1"/>
+      <c r="K4" s="11" ph="1"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16">
+      <c r="B5" s="6">
         <v>19</v>
       </c>
-      <c r="C5" s="32" t="s" ph="1">
+      <c r="C5" s="13" t="s" ph="1">
         <v>6</v>
       </c>
-      <c r="D5" s="29" ph="1"/>
-      <c r="E5" s="29" ph="1"/>
-      <c r="F5" s="29" ph="1"/>
-      <c r="G5" s="29" ph="1"/>
-      <c r="H5" s="29" ph="1"/>
-      <c r="I5" s="29" ph="1"/>
-      <c r="J5" s="29" ph="1"/>
-      <c r="K5" s="29" ph="1"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="22"/>
+      <c r="D5" s="11" ph="1"/>
+      <c r="E5" s="11" ph="1"/>
+      <c r="F5" s="11" ph="1"/>
+      <c r="G5" s="11" ph="1"/>
+      <c r="H5" s="11" ph="1"/>
+      <c r="I5" s="11" ph="1"/>
+      <c r="J5" s="11" ph="1"/>
+      <c r="K5" s="11" ph="1"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <v>20</v>
       </c>
-      <c r="C6" s="32" t="s" ph="1">
+      <c r="C6" s="13" t="s" ph="1">
         <v>7</v>
       </c>
-      <c r="D6" s="29" ph="1"/>
-      <c r="E6" s="29" ph="1"/>
-      <c r="F6" s="29" ph="1"/>
-      <c r="G6" s="29" ph="1"/>
-      <c r="H6" s="29" ph="1"/>
-      <c r="I6" s="29" ph="1"/>
-      <c r="J6" s="29" ph="1"/>
-      <c r="K6" s="29" ph="1"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="22"/>
+      <c r="D6" s="11" ph="1"/>
+      <c r="E6" s="11" ph="1"/>
+      <c r="F6" s="11" ph="1"/>
+      <c r="G6" s="11" ph="1"/>
+      <c r="H6" s="11" ph="1"/>
+      <c r="I6" s="11" ph="1"/>
+      <c r="J6" s="11" ph="1"/>
+      <c r="K6" s="11" ph="1"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16">
+      <c r="B7" s="6">
         <v>21</v>
       </c>
-      <c r="C7" s="32" t="s" ph="1">
+      <c r="C7" s="13" t="s" ph="1">
         <v>26</v>
       </c>
-      <c r="D7" s="29" ph="1"/>
-      <c r="E7" s="29" ph="1"/>
-      <c r="F7" s="29" ph="1"/>
-      <c r="G7" s="29" ph="1"/>
-      <c r="H7" s="29" ph="1"/>
-      <c r="I7" s="29" ph="1"/>
-      <c r="J7" s="29" ph="1"/>
-      <c r="K7" s="29" ph="1"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="23"/>
+      <c r="D7" s="11" ph="1"/>
+      <c r="E7" s="11" ph="1"/>
+      <c r="F7" s="11" ph="1"/>
+      <c r="G7" s="11" ph="1"/>
+      <c r="H7" s="11" ph="1"/>
+      <c r="I7" s="11" ph="1"/>
+      <c r="J7" s="11" ph="1"/>
+      <c r="K7" s="11" ph="1"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <v>22</v>
       </c>
-      <c r="C8" s="32" t="s" ph="1">
+      <c r="C8" s="13" t="s" ph="1">
         <v>38</v>
       </c>
-      <c r="D8" s="29" ph="1"/>
-      <c r="E8" s="29" ph="1"/>
-      <c r="F8" s="29" ph="1"/>
-      <c r="G8" s="29" ph="1"/>
-      <c r="H8" s="29" ph="1"/>
-      <c r="I8" s="29" ph="1"/>
-      <c r="J8" s="29" ph="1"/>
-      <c r="K8" s="29" ph="1"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="23"/>
+      <c r="D8" s="11" ph="1"/>
+      <c r="E8" s="11" ph="1"/>
+      <c r="F8" s="11" ph="1"/>
+      <c r="G8" s="11" ph="1"/>
+      <c r="H8" s="11" ph="1"/>
+      <c r="I8" s="11" ph="1"/>
+      <c r="J8" s="11" ph="1"/>
+      <c r="K8" s="11" ph="1"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+      <c r="B9" s="6">
         <v>23</v>
       </c>
-      <c r="C9" s="32" t="s" ph="1">
+      <c r="C9" s="13" t="s" ph="1">
         <v>55</v>
       </c>
-      <c r="D9" s="29" ph="1"/>
-      <c r="E9" s="29" ph="1"/>
-      <c r="F9" s="29" ph="1"/>
-      <c r="G9" s="29" ph="1"/>
-      <c r="H9" s="29" ph="1"/>
-      <c r="I9" s="29" ph="1"/>
-      <c r="J9" s="29" ph="1"/>
-      <c r="K9" s="29" ph="1"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="23"/>
+      <c r="D9" s="11" ph="1"/>
+      <c r="E9" s="11" ph="1"/>
+      <c r="F9" s="11" ph="1"/>
+      <c r="G9" s="11" ph="1"/>
+      <c r="H9" s="11" ph="1"/>
+      <c r="I9" s="11" ph="1"/>
+      <c r="J9" s="11" ph="1"/>
+      <c r="K9" s="11" ph="1"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <v>24</v>
       </c>
-      <c r="C10" s="32" t="s" ph="1">
+      <c r="C10" s="13" t="s" ph="1">
         <v>39</v>
       </c>
-      <c r="D10" s="29" ph="1"/>
-      <c r="E10" s="29" ph="1"/>
-      <c r="F10" s="29" ph="1"/>
-      <c r="G10" s="29" ph="1"/>
-      <c r="H10" s="29" ph="1"/>
-      <c r="I10" s="29" ph="1"/>
-      <c r="J10" s="29" ph="1"/>
-      <c r="K10" s="29" ph="1"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="23"/>
+      <c r="D10" s="11" ph="1"/>
+      <c r="E10" s="11" ph="1"/>
+      <c r="F10" s="11" ph="1"/>
+      <c r="G10" s="11" ph="1"/>
+      <c r="H10" s="11" ph="1"/>
+      <c r="I10" s="11" ph="1"/>
+      <c r="J10" s="11" ph="1"/>
+      <c r="K10" s="11" ph="1"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
+      <c r="B11" s="6">
         <v>25</v>
       </c>
-      <c r="C11" s="32" t="s" ph="1">
+      <c r="C11" s="13" t="s" ph="1">
         <v>40</v>
       </c>
-      <c r="D11" s="29" ph="1"/>
-      <c r="E11" s="29" ph="1"/>
-      <c r="F11" s="29" ph="1"/>
-      <c r="G11" s="29" ph="1"/>
-      <c r="H11" s="29" ph="1"/>
-      <c r="I11" s="29" ph="1"/>
-      <c r="J11" s="29" ph="1"/>
-      <c r="K11" s="29" ph="1"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="23"/>
+      <c r="D11" s="11" ph="1"/>
+      <c r="E11" s="11" ph="1"/>
+      <c r="F11" s="11" ph="1"/>
+      <c r="G11" s="11" ph="1"/>
+      <c r="H11" s="11" ph="1"/>
+      <c r="I11" s="11" ph="1"/>
+      <c r="J11" s="11" ph="1"/>
+      <c r="K11" s="11" ph="1"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>26</v>
       </c>
-      <c r="C12" s="32" t="s" ph="1">
+      <c r="C12" s="13" t="s" ph="1">
         <v>8</v>
       </c>
-      <c r="D12" s="29" ph="1"/>
-      <c r="E12" s="29" ph="1"/>
-      <c r="F12" s="29" ph="1"/>
-      <c r="G12" s="29" ph="1"/>
-      <c r="H12" s="29" ph="1"/>
-      <c r="I12" s="29" ph="1"/>
-      <c r="J12" s="29" ph="1"/>
-      <c r="K12" s="29" ph="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="23"/>
+      <c r="D12" s="11" ph="1"/>
+      <c r="E12" s="11" ph="1"/>
+      <c r="F12" s="11" ph="1"/>
+      <c r="G12" s="11" ph="1"/>
+      <c r="H12" s="11" ph="1"/>
+      <c r="I12" s="11" ph="1"/>
+      <c r="J12" s="11" ph="1"/>
+      <c r="K12" s="11" ph="1"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
+      <c r="B13" s="6">
         <v>27</v>
       </c>
-      <c r="C13" s="32" t="s" ph="1">
+      <c r="C13" s="13" t="s" ph="1">
         <v>56</v>
       </c>
-      <c r="D13" s="29" ph="1"/>
-      <c r="E13" s="29" ph="1"/>
-      <c r="F13" s="29" ph="1"/>
-      <c r="G13" s="29" ph="1"/>
-      <c r="H13" s="29" ph="1"/>
-      <c r="I13" s="29" ph="1"/>
-      <c r="J13" s="29" ph="1"/>
-      <c r="K13" s="29" ph="1"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="23"/>
+      <c r="D13" s="11" ph="1"/>
+      <c r="E13" s="11" ph="1"/>
+      <c r="F13" s="11" ph="1"/>
+      <c r="G13" s="11" ph="1"/>
+      <c r="H13" s="11" ph="1"/>
+      <c r="I13" s="11" ph="1"/>
+      <c r="J13" s="11" ph="1"/>
+      <c r="K13" s="11" ph="1"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <v>28</v>
       </c>
-      <c r="C14" s="32" t="s" ph="1">
+      <c r="C14" s="13" t="s" ph="1">
         <v>9</v>
       </c>
-      <c r="D14" s="29" ph="1"/>
-      <c r="E14" s="29" ph="1"/>
-      <c r="F14" s="29" ph="1"/>
-      <c r="G14" s="29" ph="1"/>
-      <c r="H14" s="29" ph="1"/>
-      <c r="I14" s="29" ph="1"/>
-      <c r="J14" s="29" ph="1"/>
-      <c r="K14" s="29" ph="1"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="23"/>
+      <c r="D14" s="11" ph="1"/>
+      <c r="E14" s="11" ph="1"/>
+      <c r="F14" s="11" ph="1"/>
+      <c r="G14" s="11" ph="1"/>
+      <c r="H14" s="11" ph="1"/>
+      <c r="I14" s="11" ph="1"/>
+      <c r="J14" s="11" ph="1"/>
+      <c r="K14" s="11" ph="1"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
+      <c r="B15" s="6">
         <v>29</v>
       </c>
-      <c r="C15" s="32" t="s" ph="1">
+      <c r="C15" s="13" t="s" ph="1">
         <v>57</v>
       </c>
-      <c r="D15" s="29" ph="1"/>
-      <c r="E15" s="29" ph="1"/>
-      <c r="F15" s="29" ph="1"/>
-      <c r="G15" s="29" ph="1"/>
-      <c r="H15" s="29" ph="1"/>
-      <c r="I15" s="29" ph="1"/>
-      <c r="J15" s="29" ph="1"/>
-      <c r="K15" s="29" ph="1"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="23"/>
+      <c r="D15" s="11" ph="1"/>
+      <c r="E15" s="11" ph="1"/>
+      <c r="F15" s="11" ph="1"/>
+      <c r="G15" s="11" ph="1"/>
+      <c r="H15" s="11" ph="1"/>
+      <c r="I15" s="11" ph="1"/>
+      <c r="J15" s="11" ph="1"/>
+      <c r="K15" s="11" ph="1"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <v>30</v>
       </c>
-      <c r="C16" s="32" t="s" ph="1">
+      <c r="C16" s="13" t="s" ph="1">
         <v>10</v>
       </c>
-      <c r="D16" s="29" ph="1"/>
-      <c r="E16" s="29" ph="1"/>
-      <c r="F16" s="29" ph="1"/>
-      <c r="G16" s="29" ph="1"/>
-      <c r="H16" s="29" ph="1"/>
-      <c r="I16" s="29" ph="1"/>
-      <c r="J16" s="29" ph="1"/>
-      <c r="K16" s="29" ph="1"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="23"/>
+      <c r="D16" s="11" ph="1"/>
+      <c r="E16" s="11" ph="1"/>
+      <c r="F16" s="11" ph="1"/>
+      <c r="G16" s="11" ph="1"/>
+      <c r="H16" s="11" ph="1"/>
+      <c r="I16" s="11" ph="1"/>
+      <c r="J16" s="11" ph="1"/>
+      <c r="K16" s="11" ph="1"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16">
+    <row r="17" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
         <v>31</v>
       </c>
-      <c r="C17" s="32" t="s" ph="1">
+      <c r="C17" s="13" t="s" ph="1">
         <v>58</v>
       </c>
-      <c r="D17" s="29" t="s" ph="1">
+      <c r="D17" s="11" t="s" ph="1">
         <v>48</v>
       </c>
-      <c r="E17" s="29" t="s" ph="1">
+      <c r="E17" s="11" t="s" ph="1">
         <v>49</v>
       </c>
-      <c r="F17" s="29" t="s" ph="1">
+      <c r="F17" s="11" t="s" ph="1">
         <v>50</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="11">
         <v>0</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="11">
         <v>0</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="23"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16">
+    <row r="18" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
         <v>32</v>
       </c>
-      <c r="C18" s="32" t="s" ph="1">
+      <c r="C18" s="13" t="s" ph="1">
         <v>59</v>
       </c>
-      <c r="D18" s="29" t="s" ph="1">
+      <c r="D18" s="11" t="s" ph="1">
         <v>51</v>
       </c>
-      <c r="E18" s="29" t="s" ph="1">
+      <c r="E18" s="11" t="s" ph="1">
         <v>52</v>
       </c>
-      <c r="F18" s="29" t="s" ph="1">
+      <c r="F18" s="11" t="s" ph="1">
         <v>53</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="11">
         <v>0</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="11">
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="11">
         <v>0</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="23"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16">
+    <row r="19" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
         <v>33</v>
       </c>
-      <c r="C19" s="32" t="s" ph="1">
+      <c r="C19" s="13" t="s" ph="1">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s" ph="1">
+      <c r="D19" s="11" t="s" ph="1">
         <v>51</v>
       </c>
-      <c r="E19" s="29" t="s" ph="1">
+      <c r="E19" s="11" t="s" ph="1">
         <v>52</v>
       </c>
-      <c r="F19" s="29" t="s" ph="1">
+      <c r="F19" s="11" t="s" ph="1">
         <v>54</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="11">
         <v>0</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="11">
         <v>0</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="23"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:18" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="17">
+    <row r="20" spans="2:18" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>34</v>
       </c>
-      <c r="C20" s="33" t="s" ph="1">
+      <c r="C20" s="14" t="s" ph="1">
         <v>12</v>
       </c>
-      <c r="D20" s="30" t="s" ph="1">
+      <c r="D20" s="12" t="s" ph="1">
         <v>51</v>
       </c>
-      <c r="E20" s="30" t="s" ph="1">
+      <c r="E20" s="12" t="s" ph="1">
         <v>52</v>
       </c>
-      <c r="F20" s="30" t="s" ph="1">
+      <c r="F20" s="12" t="s" ph="1">
         <v>50</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="12">
         <v>0</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="12">
         <v>0</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="12">
         <v>0</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="12">
         <v>0</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="24"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
@@ -3786,7 +3686,7 @@
       <c r="J66" s="1" ph="1"/>
       <c r="K66" s="1" ph="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" ph="1"/>
       <c r="C67" s="1" ph="1"/>
       <c r="D67" s="1" ph="1"/>
@@ -3896,6 +3796,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="C2:K2"/>
@@ -3908,14 +3816,6 @@
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C10:K10"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3931,7 +3831,7 @@
   <dimension ref="B1:V75"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3951,33 +3851,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s" ph="1">
+      <c r="B1" s="4" t="s" ph="1">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s" ph="1">
+      <c r="C1" s="10" t="s" ph="1">
         <v>3</v>
       </c>
-      <c r="D1" s="31" ph="1"/>
-      <c r="E1" s="31" ph="1"/>
-      <c r="F1" s="31" ph="1"/>
-      <c r="G1" s="31" ph="1"/>
-      <c r="H1" s="31" ph="1"/>
-      <c r="I1" s="31" ph="1"/>
-      <c r="J1" s="31" ph="1"/>
-      <c r="K1" s="31" ph="1"/>
-      <c r="L1" s="15" t="s" ph="1">
+      <c r="D1" s="10" ph="1"/>
+      <c r="E1" s="10" ph="1"/>
+      <c r="F1" s="10" ph="1"/>
+      <c r="G1" s="10" ph="1"/>
+      <c r="H1" s="10" ph="1"/>
+      <c r="I1" s="10" ph="1"/>
+      <c r="J1" s="10" ph="1"/>
+      <c r="K1" s="10" ph="1"/>
+      <c r="L1" s="5" t="s" ph="1">
         <v>42</v>
       </c>
-      <c r="M1" s="15" t="s" ph="1">
+      <c r="M1" s="5" t="s" ph="1">
         <v>1</v>
       </c>
-      <c r="N1" s="15" t="s" ph="1">
+      <c r="N1" s="5" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="O1" s="19" t="s" ph="1">
+      <c r="O1" s="8" t="s" ph="1">
         <v>43</v>
       </c>
-      <c r="P1" s="21" t="s" ph="1">
+      <c r="P1" s="9" t="s" ph="1">
         <v>41</v>
       </c>
       <c r="Q1" s="1"/>
@@ -3986,297 +3886,297 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <v>35</v>
       </c>
-      <c r="C2" s="32" t="s" ph="1">
+      <c r="C2" s="13" t="s" ph="1">
         <v>13</v>
       </c>
-      <c r="D2" s="29" ph="1"/>
-      <c r="E2" s="29" ph="1"/>
-      <c r="F2" s="29" ph="1"/>
-      <c r="G2" s="29" ph="1"/>
-      <c r="H2" s="29" ph="1"/>
-      <c r="I2" s="29" ph="1"/>
-      <c r="J2" s="29" ph="1"/>
-      <c r="K2" s="29" ph="1"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="22"/>
+      <c r="D2" s="11" ph="1"/>
+      <c r="E2" s="11" ph="1"/>
+      <c r="F2" s="11" ph="1"/>
+      <c r="G2" s="11" ph="1"/>
+      <c r="H2" s="11" ph="1"/>
+      <c r="I2" s="11" ph="1"/>
+      <c r="J2" s="11" ph="1"/>
+      <c r="K2" s="11" ph="1"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <v>36</v>
       </c>
-      <c r="C3" s="32" t="s" ph="1">
+      <c r="C3" s="13" t="s" ph="1">
         <v>14</v>
       </c>
-      <c r="D3" s="29" ph="1"/>
-      <c r="E3" s="29" ph="1"/>
-      <c r="F3" s="29" ph="1"/>
-      <c r="G3" s="29" ph="1"/>
-      <c r="H3" s="29" ph="1"/>
-      <c r="I3" s="29" ph="1"/>
-      <c r="J3" s="29" ph="1"/>
-      <c r="K3" s="29" ph="1"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="22"/>
+      <c r="D3" s="11" ph="1"/>
+      <c r="E3" s="11" ph="1"/>
+      <c r="F3" s="11" ph="1"/>
+      <c r="G3" s="11" ph="1"/>
+      <c r="H3" s="11" ph="1"/>
+      <c r="I3" s="11" ph="1"/>
+      <c r="J3" s="11" ph="1"/>
+      <c r="K3" s="11" ph="1"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16">
+      <c r="B4" s="6">
         <v>37</v>
       </c>
-      <c r="C4" s="32" t="s" ph="1">
+      <c r="C4" s="13" t="s" ph="1">
         <v>15</v>
       </c>
-      <c r="D4" s="29" ph="1"/>
-      <c r="E4" s="29" ph="1"/>
-      <c r="F4" s="29" ph="1"/>
-      <c r="G4" s="29" ph="1"/>
-      <c r="H4" s="29" ph="1"/>
-      <c r="I4" s="29" ph="1"/>
-      <c r="J4" s="29" ph="1"/>
-      <c r="K4" s="29" ph="1"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="23"/>
+      <c r="D4" s="11" ph="1"/>
+      <c r="E4" s="11" ph="1"/>
+      <c r="F4" s="11" ph="1"/>
+      <c r="G4" s="11" ph="1"/>
+      <c r="H4" s="11" ph="1"/>
+      <c r="I4" s="11" ph="1"/>
+      <c r="J4" s="11" ph="1"/>
+      <c r="K4" s="11" ph="1"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16">
+      <c r="B5" s="6">
         <v>38</v>
       </c>
-      <c r="C5" s="32" t="s" ph="1">
+      <c r="C5" s="13" t="s" ph="1">
         <v>16</v>
       </c>
-      <c r="D5" s="29" ph="1"/>
-      <c r="E5" s="29" ph="1"/>
-      <c r="F5" s="29" ph="1"/>
-      <c r="G5" s="29" ph="1"/>
-      <c r="H5" s="29" ph="1"/>
-      <c r="I5" s="29" ph="1"/>
-      <c r="J5" s="29" ph="1"/>
-      <c r="K5" s="29" ph="1"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="23"/>
+      <c r="D5" s="11" ph="1"/>
+      <c r="E5" s="11" ph="1"/>
+      <c r="F5" s="11" ph="1"/>
+      <c r="G5" s="11" ph="1"/>
+      <c r="H5" s="11" ph="1"/>
+      <c r="I5" s="11" ph="1"/>
+      <c r="J5" s="11" ph="1"/>
+      <c r="K5" s="11" ph="1"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <v>39</v>
       </c>
-      <c r="C6" s="32" t="s" ph="1">
+      <c r="C6" s="13" t="s" ph="1">
         <v>44</v>
       </c>
-      <c r="D6" s="29" ph="1"/>
-      <c r="E6" s="29" ph="1"/>
-      <c r="F6" s="29" ph="1"/>
-      <c r="G6" s="29" ph="1"/>
-      <c r="H6" s="29" ph="1"/>
-      <c r="I6" s="29" ph="1"/>
-      <c r="J6" s="29" ph="1"/>
-      <c r="K6" s="29" ph="1"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="23"/>
+      <c r="D6" s="11" ph="1"/>
+      <c r="E6" s="11" ph="1"/>
+      <c r="F6" s="11" ph="1"/>
+      <c r="G6" s="11" ph="1"/>
+      <c r="H6" s="11" ph="1"/>
+      <c r="I6" s="11" ph="1"/>
+      <c r="J6" s="11" ph="1"/>
+      <c r="K6" s="11" ph="1"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16">
+      <c r="B7" s="6">
         <v>40</v>
       </c>
-      <c r="C7" s="32" t="s" ph="1">
+      <c r="C7" s="13" t="s" ph="1">
         <v>45</v>
       </c>
-      <c r="D7" s="29" ph="1"/>
-      <c r="E7" s="29" ph="1"/>
-      <c r="F7" s="29" ph="1"/>
-      <c r="G7" s="29" ph="1"/>
-      <c r="H7" s="29" ph="1"/>
-      <c r="I7" s="29" ph="1"/>
-      <c r="J7" s="29" ph="1"/>
-      <c r="K7" s="29" ph="1"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="23"/>
+      <c r="D7" s="11" ph="1"/>
+      <c r="E7" s="11" ph="1"/>
+      <c r="F7" s="11" ph="1"/>
+      <c r="G7" s="11" ph="1"/>
+      <c r="H7" s="11" ph="1"/>
+      <c r="I7" s="11" ph="1"/>
+      <c r="J7" s="11" ph="1"/>
+      <c r="K7" s="11" ph="1"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <v>41</v>
       </c>
-      <c r="C8" s="32" t="s" ph="1">
+      <c r="C8" s="13" t="s" ph="1">
         <v>46</v>
       </c>
-      <c r="D8" s="29" ph="1"/>
-      <c r="E8" s="29" ph="1"/>
-      <c r="F8" s="29" ph="1"/>
-      <c r="G8" s="29" ph="1"/>
-      <c r="H8" s="29" ph="1"/>
-      <c r="I8" s="29" ph="1"/>
-      <c r="J8" s="29" ph="1"/>
-      <c r="K8" s="29" ph="1"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="23"/>
+      <c r="D8" s="11" ph="1"/>
+      <c r="E8" s="11" ph="1"/>
+      <c r="F8" s="11" ph="1"/>
+      <c r="G8" s="11" ph="1"/>
+      <c r="H8" s="11" ph="1"/>
+      <c r="I8" s="11" ph="1"/>
+      <c r="J8" s="11" ph="1"/>
+      <c r="K8" s="11" ph="1"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+      <c r="B9" s="6">
         <v>42</v>
       </c>
-      <c r="C9" s="32" t="s" ph="1">
+      <c r="C9" s="13" t="s" ph="1">
         <v>17</v>
       </c>
-      <c r="D9" s="29" ph="1"/>
-      <c r="E9" s="29" ph="1"/>
-      <c r="F9" s="29" ph="1"/>
-      <c r="G9" s="29" ph="1"/>
-      <c r="H9" s="29" ph="1"/>
-      <c r="I9" s="29" ph="1"/>
-      <c r="J9" s="29" ph="1"/>
-      <c r="K9" s="29" ph="1"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="23"/>
+      <c r="D9" s="11" ph="1"/>
+      <c r="E9" s="11" ph="1"/>
+      <c r="F9" s="11" ph="1"/>
+      <c r="G9" s="11" ph="1"/>
+      <c r="H9" s="11" ph="1"/>
+      <c r="I9" s="11" ph="1"/>
+      <c r="J9" s="11" ph="1"/>
+      <c r="K9" s="11" ph="1"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <v>43</v>
       </c>
-      <c r="C10" s="32" t="s" ph="1">
+      <c r="C10" s="13" t="s" ph="1">
         <v>61</v>
       </c>
-      <c r="D10" s="29" ph="1"/>
-      <c r="E10" s="29" ph="1"/>
-      <c r="F10" s="29" ph="1"/>
-      <c r="G10" s="29" ph="1"/>
-      <c r="H10" s="29" ph="1"/>
-      <c r="I10" s="29" ph="1"/>
-      <c r="J10" s="29" ph="1"/>
-      <c r="K10" s="29" ph="1"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="23"/>
+      <c r="D10" s="11" ph="1"/>
+      <c r="E10" s="11" ph="1"/>
+      <c r="F10" s="11" ph="1"/>
+      <c r="G10" s="11" ph="1"/>
+      <c r="H10" s="11" ph="1"/>
+      <c r="I10" s="11" ph="1"/>
+      <c r="J10" s="11" ph="1"/>
+      <c r="K10" s="11" ph="1"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
+      <c r="B11" s="6">
         <v>44</v>
       </c>
-      <c r="C11" s="32" t="s" ph="1">
+      <c r="C11" s="13" t="s" ph="1">
         <v>18</v>
       </c>
-      <c r="D11" s="29" ph="1"/>
-      <c r="E11" s="29" ph="1"/>
-      <c r="F11" s="29" ph="1"/>
-      <c r="G11" s="29" ph="1"/>
-      <c r="H11" s="29" ph="1"/>
-      <c r="I11" s="29" ph="1"/>
-      <c r="J11" s="29" ph="1"/>
-      <c r="K11" s="29" ph="1"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="23"/>
+      <c r="D11" s="11" ph="1"/>
+      <c r="E11" s="11" ph="1"/>
+      <c r="F11" s="11" ph="1"/>
+      <c r="G11" s="11" ph="1"/>
+      <c r="H11" s="11" ph="1"/>
+      <c r="I11" s="11" ph="1"/>
+      <c r="J11" s="11" ph="1"/>
+      <c r="K11" s="11" ph="1"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>45</v>
       </c>
-      <c r="C12" s="32" t="s" ph="1">
+      <c r="C12" s="13" t="s" ph="1">
         <v>60</v>
       </c>
-      <c r="D12" s="29" ph="1"/>
-      <c r="E12" s="29" ph="1"/>
-      <c r="F12" s="29" ph="1"/>
-      <c r="G12" s="29" ph="1"/>
-      <c r="H12" s="29" ph="1"/>
-      <c r="I12" s="29" ph="1"/>
-      <c r="J12" s="29" ph="1"/>
-      <c r="K12" s="29" ph="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="23"/>
+      <c r="D12" s="11" ph="1"/>
+      <c r="E12" s="11" ph="1"/>
+      <c r="F12" s="11" ph="1"/>
+      <c r="G12" s="11" ph="1"/>
+      <c r="H12" s="11" ph="1"/>
+      <c r="I12" s="11" ph="1"/>
+      <c r="J12" s="11" ph="1"/>
+      <c r="K12" s="11" ph="1"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
+      <c r="B13" s="6">
         <v>46</v>
       </c>
-      <c r="C13" s="32" t="s" ph="1">
+      <c r="C13" s="13" t="s" ph="1">
         <v>19</v>
       </c>
-      <c r="D13" s="29" ph="1"/>
-      <c r="E13" s="29" ph="1"/>
-      <c r="F13" s="29" ph="1"/>
-      <c r="G13" s="29" ph="1"/>
-      <c r="H13" s="29" ph="1"/>
-      <c r="I13" s="29" ph="1"/>
-      <c r="J13" s="29" ph="1"/>
-      <c r="K13" s="29" ph="1"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="23"/>
+      <c r="D13" s="11" ph="1"/>
+      <c r="E13" s="11" ph="1"/>
+      <c r="F13" s="11" ph="1"/>
+      <c r="G13" s="11" ph="1"/>
+      <c r="H13" s="11" ph="1"/>
+      <c r="I13" s="11" ph="1"/>
+      <c r="J13" s="11" ph="1"/>
+      <c r="K13" s="11" ph="1"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="17">
+      <c r="B14" s="7">
         <v>47</v>
       </c>
-      <c r="C14" s="33" t="s" ph="1">
+      <c r="C14" s="14" t="s" ph="1">
         <v>47</v>
       </c>
-      <c r="D14" s="30" ph="1"/>
-      <c r="E14" s="30" ph="1"/>
-      <c r="F14" s="30" ph="1"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="24"/>
+      <c r="D14" s="12" ph="1"/>
+      <c r="E14" s="12" ph="1"/>
+      <c r="F14" s="12" ph="1"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
@@ -4868,7 +4768,7 @@
       <c r="J63" s="1" ph="1"/>
       <c r="K63" s="1" ph="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B64" s="1" ph="1"/>
       <c r="C64" s="1" ph="1"/>
       <c r="D64" s="1" ph="1"/>
@@ -4880,7 +4780,7 @@
       <c r="J64" s="1" ph="1"/>
       <c r="K64" s="1" ph="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B65" s="1" ph="1"/>
       <c r="C65" s="1" ph="1"/>
       <c r="D65" s="1" ph="1"/>
@@ -4916,7 +4816,7 @@
       <c r="J67" s="1" ph="1"/>
       <c r="K67" s="1" ph="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" ph="1"/>
       <c r="C68" s="1" ph="1"/>
       <c r="D68" s="1" ph="1"/>
@@ -5014,6 +4914,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="C2:K2"/>
@@ -5023,11 +4928,6 @@
     <mergeCell ref="C6:K6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5042,8 +4942,8 @@
   </sheetPr>
   <dimension ref="B1:V75"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5063,33 +4963,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s" ph="1">
+      <c r="B1" s="4" t="s" ph="1">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s" ph="1">
+      <c r="C1" s="10" t="s" ph="1">
         <v>3</v>
       </c>
-      <c r="D1" s="31" ph="1"/>
-      <c r="E1" s="31" ph="1"/>
-      <c r="F1" s="31" ph="1"/>
-      <c r="G1" s="31" ph="1"/>
-      <c r="H1" s="31" ph="1"/>
-      <c r="I1" s="31" ph="1"/>
-      <c r="J1" s="31" ph="1"/>
-      <c r="K1" s="31" ph="1"/>
-      <c r="L1" s="15" t="s" ph="1">
+      <c r="D1" s="10" ph="1"/>
+      <c r="E1" s="10" ph="1"/>
+      <c r="F1" s="10" ph="1"/>
+      <c r="G1" s="10" ph="1"/>
+      <c r="H1" s="10" ph="1"/>
+      <c r="I1" s="10" ph="1"/>
+      <c r="J1" s="10" ph="1"/>
+      <c r="K1" s="10" ph="1"/>
+      <c r="L1" s="5" t="s" ph="1">
         <v>42</v>
       </c>
-      <c r="M1" s="15" t="s" ph="1">
+      <c r="M1" s="5" t="s" ph="1">
         <v>1</v>
       </c>
-      <c r="N1" s="15" t="s" ph="1">
+      <c r="N1" s="5" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="O1" s="19" t="s" ph="1">
+      <c r="O1" s="8" t="s" ph="1">
         <v>43</v>
       </c>
-      <c r="P1" s="21" t="s" ph="1">
+      <c r="P1" s="9" t="s" ph="1">
         <v>41</v>
       </c>
       <c r="Q1" s="1"/>
@@ -5098,419 +4998,419 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="2:22" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <f>[1]Survery!A57</f>
         <v>48</v>
       </c>
-      <c r="C2" s="32" t="str">
+      <c r="C2" s="13" t="str">
         <f>[1]Survery!B57</f>
         <v>Has earned the trust of others. 赢得他人的信任。</v>
       </c>
-      <c r="D2" s="29" ph="1"/>
-      <c r="E2" s="29" ph="1"/>
-      <c r="F2" s="29" ph="1"/>
-      <c r="G2" s="29" ph="1"/>
-      <c r="H2" s="29" ph="1"/>
-      <c r="I2" s="29" ph="1"/>
-      <c r="J2" s="29" ph="1"/>
-      <c r="K2" s="29" ph="1"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="22"/>
+      <c r="D2" s="11" ph="1"/>
+      <c r="E2" s="11" ph="1"/>
+      <c r="F2" s="11" ph="1"/>
+      <c r="G2" s="11" ph="1"/>
+      <c r="H2" s="11" ph="1"/>
+      <c r="I2" s="11" ph="1"/>
+      <c r="J2" s="11" ph="1"/>
+      <c r="K2" s="11" ph="1"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <f>[1]Survery!A58</f>
         <v>49</v>
       </c>
-      <c r="C3" s="32" t="str">
+      <c r="C3" s="13" t="str">
         <f>[1]Survery!B58</f>
         <v>Communicates openly. 沟通时开诚布公。</v>
       </c>
-      <c r="D3" s="29" ph="1"/>
-      <c r="E3" s="29" ph="1"/>
-      <c r="F3" s="29" ph="1"/>
-      <c r="G3" s="29" ph="1"/>
-      <c r="H3" s="29" ph="1"/>
-      <c r="I3" s="29" ph="1"/>
-      <c r="J3" s="29" ph="1"/>
-      <c r="K3" s="29" ph="1"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="22"/>
+      <c r="D3" s="11" ph="1"/>
+      <c r="E3" s="11" ph="1"/>
+      <c r="F3" s="11" ph="1"/>
+      <c r="G3" s="11" ph="1"/>
+      <c r="H3" s="11" ph="1"/>
+      <c r="I3" s="11" ph="1"/>
+      <c r="J3" s="11" ph="1"/>
+      <c r="K3" s="11" ph="1"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16">
+      <c r="B4" s="6">
         <f>[1]Survery!A59</f>
         <v>50</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="13" t="str">
         <f>[1]Survery!B59</f>
         <v>Is open to feedback from others.乐于听取他人反馈。</v>
       </c>
-      <c r="D4" s="29" ph="1"/>
-      <c r="E4" s="29" ph="1"/>
-      <c r="F4" s="29" ph="1"/>
-      <c r="G4" s="29" ph="1"/>
-      <c r="H4" s="29" ph="1"/>
-      <c r="I4" s="29" ph="1"/>
-      <c r="J4" s="29" ph="1"/>
-      <c r="K4" s="29" ph="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="22"/>
+      <c r="D4" s="11" ph="1"/>
+      <c r="E4" s="11" ph="1"/>
+      <c r="F4" s="11" ph="1"/>
+      <c r="G4" s="11" ph="1"/>
+      <c r="H4" s="11" ph="1"/>
+      <c r="I4" s="11" ph="1"/>
+      <c r="J4" s="11" ph="1"/>
+      <c r="K4" s="11" ph="1"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16">
+      <c r="B5" s="6">
         <f>[1]Survery!A60</f>
         <v>51</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="13" t="str">
         <f>[1]Survery!B60</f>
         <v>Leads by example. 以身作则。</v>
       </c>
-      <c r="D5" s="29" ph="1"/>
-      <c r="E5" s="29" ph="1"/>
-      <c r="F5" s="29" ph="1"/>
-      <c r="G5" s="29" ph="1"/>
-      <c r="H5" s="29" ph="1"/>
-      <c r="I5" s="29" ph="1"/>
-      <c r="J5" s="29" ph="1"/>
-      <c r="K5" s="29" ph="1"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="22"/>
+      <c r="D5" s="11" ph="1"/>
+      <c r="E5" s="11" ph="1"/>
+      <c r="F5" s="11" ph="1"/>
+      <c r="G5" s="11" ph="1"/>
+      <c r="H5" s="11" ph="1"/>
+      <c r="I5" s="11" ph="1"/>
+      <c r="J5" s="11" ph="1"/>
+      <c r="K5" s="11" ph="1"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <f>[1]Survery!A61</f>
         <v>52</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="13" t="str">
         <f>[1]Survery!B61</f>
         <v>Helps other people achieve their goals. 帮助他人达成目标。</v>
       </c>
-      <c r="D6" s="29" ph="1"/>
-      <c r="E6" s="29" ph="1"/>
-      <c r="F6" s="29" ph="1"/>
-      <c r="G6" s="29" ph="1"/>
-      <c r="H6" s="29" ph="1"/>
-      <c r="I6" s="29" ph="1"/>
-      <c r="J6" s="29" ph="1"/>
-      <c r="K6" s="29" ph="1"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="22"/>
+      <c r="D6" s="11" ph="1"/>
+      <c r="E6" s="11" ph="1"/>
+      <c r="F6" s="11" ph="1"/>
+      <c r="G6" s="11" ph="1"/>
+      <c r="H6" s="11" ph="1"/>
+      <c r="I6" s="11" ph="1"/>
+      <c r="J6" s="11" ph="1"/>
+      <c r="K6" s="11" ph="1"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16">
+      <c r="B7" s="6">
         <f>[1]Survery!A62</f>
         <v>53</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="13" t="str">
         <f>[1]Survery!B62</f>
         <v>Maintains high ethical standards. 保持高度的道德标准。</v>
       </c>
-      <c r="D7" s="29" ph="1"/>
-      <c r="E7" s="29" ph="1"/>
-      <c r="F7" s="29" ph="1"/>
-      <c r="G7" s="29" ph="1"/>
-      <c r="H7" s="29" ph="1"/>
-      <c r="I7" s="29" ph="1"/>
-      <c r="J7" s="29" ph="1"/>
-      <c r="K7" s="29" ph="1"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="23"/>
+      <c r="D7" s="11" ph="1"/>
+      <c r="E7" s="11" ph="1"/>
+      <c r="F7" s="11" ph="1"/>
+      <c r="G7" s="11" ph="1"/>
+      <c r="H7" s="11" ph="1"/>
+      <c r="I7" s="11" ph="1"/>
+      <c r="J7" s="11" ph="1"/>
+      <c r="K7" s="11" ph="1"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <f>[1]Survery!A63</f>
         <v>54</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="13" t="str">
         <f>[1]Survery!B63</f>
         <v>Has a strong work ethic. 有强烈的职业道德。</v>
       </c>
-      <c r="D8" s="29" ph="1"/>
-      <c r="E8" s="29" ph="1"/>
-      <c r="F8" s="29" ph="1"/>
-      <c r="G8" s="29" ph="1"/>
-      <c r="H8" s="29" ph="1"/>
-      <c r="I8" s="29" ph="1"/>
-      <c r="J8" s="29" ph="1"/>
-      <c r="K8" s="29" ph="1"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="23"/>
+      <c r="D8" s="11" ph="1"/>
+      <c r="E8" s="11" ph="1"/>
+      <c r="F8" s="11" ph="1"/>
+      <c r="G8" s="11" ph="1"/>
+      <c r="H8" s="11" ph="1"/>
+      <c r="I8" s="11" ph="1"/>
+      <c r="J8" s="11" ph="1"/>
+      <c r="K8" s="11" ph="1"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+      <c r="B9" s="6">
         <f>[1]Survery!A64</f>
         <v>55</v>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="13" t="str">
         <f>[1]Survery!B64</f>
         <v>Does not undermine others. 不损害他人。</v>
       </c>
-      <c r="D9" s="29" ph="1"/>
-      <c r="E9" s="29" ph="1"/>
-      <c r="F9" s="29" ph="1"/>
-      <c r="G9" s="29" ph="1"/>
-      <c r="H9" s="29" ph="1"/>
-      <c r="I9" s="29" ph="1"/>
-      <c r="J9" s="29" ph="1"/>
-      <c r="K9" s="29" ph="1"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="23"/>
+      <c r="D9" s="11" ph="1"/>
+      <c r="E9" s="11" ph="1"/>
+      <c r="F9" s="11" ph="1"/>
+      <c r="G9" s="11" ph="1"/>
+      <c r="H9" s="11" ph="1"/>
+      <c r="I9" s="11" ph="1"/>
+      <c r="J9" s="11" ph="1"/>
+      <c r="K9" s="11" ph="1"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <f>[1]Survery!A65</f>
         <v>56</v>
       </c>
-      <c r="C10" s="32" t="str">
+      <c r="C10" s="13" t="str">
         <f>[1]Survery!B65</f>
         <v>Strives for excellence.  追求卓越。</v>
       </c>
-      <c r="D10" s="29" ph="1"/>
-      <c r="E10" s="29" ph="1"/>
-      <c r="F10" s="29" ph="1"/>
-      <c r="G10" s="29" ph="1"/>
-      <c r="H10" s="29" ph="1"/>
-      <c r="I10" s="29" ph="1"/>
-      <c r="J10" s="29" ph="1"/>
-      <c r="K10" s="29" ph="1"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="23"/>
+      <c r="D10" s="11" ph="1"/>
+      <c r="E10" s="11" ph="1"/>
+      <c r="F10" s="11" ph="1"/>
+      <c r="G10" s="11" ph="1"/>
+      <c r="H10" s="11" ph="1"/>
+      <c r="I10" s="11" ph="1"/>
+      <c r="J10" s="11" ph="1"/>
+      <c r="K10" s="11" ph="1"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
+      <c r="B11" s="6">
         <f>[1]Survery!A66</f>
         <v>57</v>
       </c>
-      <c r="C11" s="32" t="str">
+      <c r="C11" s="13" t="str">
         <f>[1]Survery!B66</f>
         <v>Is candid about his/her strengths.  勇于坦诚自身优势。</v>
       </c>
-      <c r="D11" s="29" ph="1"/>
-      <c r="E11" s="29" ph="1"/>
-      <c r="F11" s="29" ph="1"/>
-      <c r="G11" s="29" ph="1"/>
-      <c r="H11" s="29" ph="1"/>
-      <c r="I11" s="29" ph="1"/>
-      <c r="J11" s="29" ph="1"/>
-      <c r="K11" s="29" ph="1"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="23"/>
+      <c r="D11" s="11" ph="1"/>
+      <c r="E11" s="11" ph="1"/>
+      <c r="F11" s="11" ph="1"/>
+      <c r="G11" s="11" ph="1"/>
+      <c r="H11" s="11" ph="1"/>
+      <c r="I11" s="11" ph="1"/>
+      <c r="J11" s="11" ph="1"/>
+      <c r="K11" s="11" ph="1"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <f>[1]Survery!A67</f>
         <v>58</v>
       </c>
-      <c r="C12" s="32" t="str">
+      <c r="C12" s="13" t="str">
         <f>[1]Survery!B67</f>
         <v>Is candid about his/her weaknesses. 勇于坦诚自身弱点。</v>
       </c>
-      <c r="D12" s="29" ph="1"/>
-      <c r="E12" s="29" ph="1"/>
-      <c r="F12" s="29" ph="1"/>
-      <c r="G12" s="29" ph="1"/>
-      <c r="H12" s="29" ph="1"/>
-      <c r="I12" s="29" ph="1"/>
-      <c r="J12" s="29" ph="1"/>
-      <c r="K12" s="29" ph="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="23"/>
+      <c r="D12" s="11" ph="1"/>
+      <c r="E12" s="11" ph="1"/>
+      <c r="F12" s="11" ph="1"/>
+      <c r="G12" s="11" ph="1"/>
+      <c r="H12" s="11" ph="1"/>
+      <c r="I12" s="11" ph="1"/>
+      <c r="J12" s="11" ph="1"/>
+      <c r="K12" s="11" ph="1"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
+      <c r="B13" s="6">
         <f>[1]Survery!A68</f>
         <v>59</v>
       </c>
-      <c r="C13" s="32" t="str">
+      <c r="C13" s="13" t="str">
         <f>[1]Survery!B68</f>
         <v>Builds effective relationships. 构建有效关系。</v>
       </c>
-      <c r="D13" s="29" ph="1"/>
-      <c r="E13" s="29" ph="1"/>
-      <c r="F13" s="29" ph="1"/>
-      <c r="G13" s="29" ph="1"/>
-      <c r="H13" s="29" ph="1"/>
-      <c r="I13" s="29" ph="1"/>
-      <c r="J13" s="29" ph="1"/>
-      <c r="K13" s="29" ph="1"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="23"/>
+      <c r="D13" s="11" ph="1"/>
+      <c r="E13" s="11" ph="1"/>
+      <c r="F13" s="11" ph="1"/>
+      <c r="G13" s="11" ph="1"/>
+      <c r="H13" s="11" ph="1"/>
+      <c r="I13" s="11" ph="1"/>
+      <c r="J13" s="11" ph="1"/>
+      <c r="K13" s="11" ph="1"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <f>[1]Survery!A69</f>
         <v>60</v>
       </c>
-      <c r="C14" s="32" t="str">
+      <c r="C14" s="13" t="str">
         <f>[1]Survery!B69</f>
         <v>Completes tasks on time. 按时完成任务。</v>
       </c>
-      <c r="D14" s="29" ph="1"/>
-      <c r="E14" s="29" ph="1"/>
-      <c r="F14" s="29" ph="1"/>
-      <c r="G14" s="29" ph="1"/>
-      <c r="H14" s="29" ph="1"/>
-      <c r="I14" s="29" ph="1"/>
-      <c r="J14" s="29" ph="1"/>
-      <c r="K14" s="29" ph="1"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="23"/>
+      <c r="D14" s="11" ph="1"/>
+      <c r="E14" s="11" ph="1"/>
+      <c r="F14" s="11" ph="1"/>
+      <c r="G14" s="11" ph="1"/>
+      <c r="H14" s="11" ph="1"/>
+      <c r="I14" s="11" ph="1"/>
+      <c r="J14" s="11" ph="1"/>
+      <c r="K14" s="11" ph="1"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
+      <c r="B15" s="6">
         <f>[1]Survery!A70</f>
         <v>61</v>
       </c>
-      <c r="C15" s="32" t="str">
+      <c r="C15" s="13" t="str">
         <f>[1]Survery!B70</f>
         <v>Completes assignments competently. 干练地完成任务。</v>
       </c>
-      <c r="D15" s="29" ph="1"/>
-      <c r="E15" s="29" ph="1"/>
-      <c r="F15" s="29" ph="1"/>
-      <c r="G15" s="29" ph="1"/>
-      <c r="H15" s="29" ph="1"/>
-      <c r="I15" s="29" ph="1"/>
-      <c r="J15" s="29" ph="1"/>
-      <c r="K15" s="29" ph="1"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="23"/>
+      <c r="D15" s="11" ph="1"/>
+      <c r="E15" s="11" ph="1"/>
+      <c r="F15" s="11" ph="1"/>
+      <c r="G15" s="11" ph="1"/>
+      <c r="H15" s="11" ph="1"/>
+      <c r="I15" s="11" ph="1"/>
+      <c r="J15" s="11" ph="1"/>
+      <c r="K15" s="11" ph="1"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <f>[1]Survery!A71</f>
         <v>62</v>
       </c>
-      <c r="C16" s="32" t="str">
+      <c r="C16" s="13" t="str">
         <f>[1]Survery!B71</f>
         <v>Communicates clearly.  沟通时表达清楚明确。</v>
       </c>
-      <c r="D16" s="29" ph="1"/>
-      <c r="E16" s="29" ph="1"/>
-      <c r="F16" s="29" ph="1"/>
-      <c r="G16" s="29" ph="1"/>
-      <c r="H16" s="29" ph="1"/>
-      <c r="I16" s="29" ph="1"/>
-      <c r="J16" s="29" ph="1"/>
-      <c r="K16" s="29" ph="1"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="23"/>
+      <c r="D16" s="11" ph="1"/>
+      <c r="E16" s="11" ph="1"/>
+      <c r="F16" s="11" ph="1"/>
+      <c r="G16" s="11" ph="1"/>
+      <c r="H16" s="11" ph="1"/>
+      <c r="I16" s="11" ph="1"/>
+      <c r="J16" s="11" ph="1"/>
+      <c r="K16" s="11" ph="1"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16">
+      <c r="B17" s="6">
         <f>[1]Survery!A72</f>
         <v>63</v>
       </c>
-      <c r="C17" s="32" t="str">
+      <c r="C17" s="13" t="str">
         <f>[1]Survery!B72</f>
         <v>Meets customer needs.满足客户需求。</v>
       </c>
-      <c r="D17" s="29" ph="1"/>
-      <c r="E17" s="29" ph="1"/>
-      <c r="F17" s="29" ph="1"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="23"/>
+      <c r="D17" s="11" ph="1"/>
+      <c r="E17" s="11" ph="1"/>
+      <c r="F17" s="11" ph="1"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="17">
+      <c r="B18" s="7">
         <v>64</v>
       </c>
-      <c r="C18" s="33" t="s" ph="1">
+      <c r="C18" s="14" t="s" ph="1">
         <v>20</v>
       </c>
-      <c r="D18" s="30" ph="1"/>
-      <c r="E18" s="30" ph="1"/>
-      <c r="F18" s="30" ph="1"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="24"/>
+      <c r="D18" s="12" ph="1"/>
+      <c r="E18" s="12" ph="1"/>
+      <c r="F18" s="12" ph="1"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
@@ -6090,7 +5990,7 @@
       <c r="J66" s="1" ph="1"/>
       <c r="K66" s="1" ph="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" ph="1"/>
       <c r="C67" s="1" ph="1"/>
       <c r="D67" s="1" ph="1"/>
@@ -6102,7 +6002,7 @@
       <c r="J67" s="1" ph="1"/>
       <c r="K67" s="1" ph="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B68" s="1" ph="1"/>
       <c r="C68" s="1" ph="1"/>
       <c r="D68" s="1" ph="1"/>
@@ -6114,7 +6014,7 @@
       <c r="J68" s="1" ph="1"/>
       <c r="K68" s="1" ph="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B69" s="1" ph="1"/>
       <c r="C69" s="1" ph="1"/>
       <c r="D69" s="1" ph="1"/>
@@ -6200,12 +6100,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C8:K8"/>
@@ -6218,6 +6112,12 @@
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/RolesOfLeadershipDetail.xlsx
+++ b/resource/RolesOfLeadershipDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="15240" windowHeight="7560" tabRatio="527"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="15240" windowHeight="7560" tabRatio="527" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pathfindings" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -567,29 +567,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1085,403 +1070,270 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V76"/>
+  <dimension ref="B1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="20.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="161.83203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="2:22" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="2:22" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1544,24 +1396,6 @@
     <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1573,507 +1407,342 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V75"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="20.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="161.83203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="2:22" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>16</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>17</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>19</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>20</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>22</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>23</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>24</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>25</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>26</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>28</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>29</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>30</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>31</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>32</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>33</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="2:18" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>34</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="2:18" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2118,28 +1787,6 @@
     <row r="74" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait"/>
@@ -2151,361 +1798,244 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V75"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="20.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="161.83203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>35</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>36</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>37</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>38</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>39</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>40</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>41</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>42</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>43</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>44</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>45</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>46</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:22" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>47</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="2:22" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2566,22 +2096,6 @@
     <row r="74" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait"/>
@@ -2593,495 +2107,346 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V75"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="20.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="161.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="2:22" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <f>[1]Survery!A57</f>
         <v>48</v>
       </c>
-      <c r="C2" s="29" t="str">
+      <c r="C2" s="25" t="str">
         <f>[1]Survery!B57</f>
         <v>Has earned the trust of others. 赢得他人的信任。</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <f>[1]Survery!A58</f>
         <v>49</v>
       </c>
-      <c r="C3" s="29" t="str">
+      <c r="C3" s="25" t="str">
         <f>[1]Survery!B58</f>
         <v>Communicates openly. 沟通时开诚布公。</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <f>[1]Survery!A59</f>
         <v>50</v>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="25" t="str">
         <f>[1]Survery!B59</f>
         <v>Is open to feedback from others.乐于听取他人反馈。</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <f>[1]Survery!A60</f>
         <v>51</v>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="25" t="str">
         <f>[1]Survery!B60</f>
         <v>Leads by example. 以身作则。</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <f>[1]Survery!A61</f>
         <v>52</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="25" t="str">
         <f>[1]Survery!B61</f>
         <v>Helps other people achieve their goals. 帮助他人达成目标。</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <f>[1]Survery!A62</f>
         <v>53</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="25" t="str">
         <f>[1]Survery!B62</f>
         <v>Maintains high ethical standards. 保持高度的道德标准。</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <f>[1]Survery!A63</f>
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="25" t="str">
         <f>[1]Survery!B63</f>
         <v>Has a strong work ethic. 有强烈的职业道德。</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <f>[1]Survery!A64</f>
         <v>55</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="25" t="str">
         <f>[1]Survery!B64</f>
         <v>Does not undermine others. 不损害他人。</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <f>[1]Survery!A65</f>
         <v>56</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="25" t="str">
         <f>[1]Survery!B65</f>
         <v>Strives for excellence.  追求卓越。</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <f>[1]Survery!A66</f>
         <v>57</v>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="25" t="str">
         <f>[1]Survery!B66</f>
         <v>Is candid about his/her strengths.  勇于坦诚自身优势。</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <f>[1]Survery!A67</f>
         <v>58</v>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="25" t="str">
         <f>[1]Survery!B67</f>
         <v>Is candid about his/her weaknesses. 勇于坦诚自身弱点。</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <f>[1]Survery!A68</f>
         <v>59</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="25" t="str">
         <f>[1]Survery!B68</f>
         <v>Builds effective relationships. 构建有效关系。</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <f>[1]Survery!A69</f>
         <v>60</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="25" t="str">
         <f>[1]Survery!B69</f>
         <v>Completes tasks on time. 按时完成任务。</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <f>[1]Survery!A70</f>
         <v>61</v>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="25" t="str">
         <f>[1]Survery!B70</f>
         <v>Completes assignments competently. 干练地完成任务。</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="2:22" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <f>[1]Survery!A71</f>
         <v>62</v>
       </c>
-      <c r="C16" s="29" t="str">
+      <c r="C16" s="25" t="str">
         <f>[1]Survery!B71</f>
         <v>Communicates clearly.  沟通时表达清楚明确。</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="2:18" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <f>[1]Survery!A72</f>
         <v>63</v>
       </c>
-      <c r="C17" s="29" t="str">
+      <c r="C17" s="25" t="str">
         <f>[1]Survery!B72</f>
         <v>Meets customer needs.满足客户需求。</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>64</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3126,26 +2491,6 @@
     <row r="74" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait"/>

--- a/resource/RolesOfLeadershipDetail.xlsx
+++ b/resource/RolesOfLeadershipDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\RolesOfLeadership\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="15240" windowHeight="7560" tabRatio="527" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="15240" windowHeight="7560" tabRatio="527" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pathfindings" sheetId="1" r:id="rId1"/>
@@ -160,26 +160,7 @@
     <t>Makes on-time decisions. 决策及时。</t>
   </si>
   <si>
-    <t>Considers long-term implications when making decisions. 
-制定决策时，考虑长期影响。</t>
-  </si>
-  <si>
     <t>Gives recognition for positive performance. 对积极的表现给予肯定。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recognizes how changing one part of the system impacts other parts. 
-了解变更系统某个部分会对其他部分造成的影响。
-</t>
-  </si>
-  <si>
-    <t>Allows others to be responsible for their work/stewardships. 
-允许他人负责自身的工作/管理方式。</t>
-  </si>
-  <si>
-    <t>Delegates work that should be done by others.  应由他人完成的工作充分放权。</t>
-  </si>
-  <si>
-    <t>Utilizes people’s abilities. 充分发挥他人能力。</t>
   </si>
   <si>
     <t>Encourages creative thinking. 鼓励创新思维。</t>
@@ -232,6 +213,101 @@
   </si>
   <si>
     <t>Is someone I would be willing to follow.  是我甘于追随的人。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allows others to be responsible for their work/stewardships. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许他人负责自身的工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理方式。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilizes people’s abilities. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充分发挥他人能力。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delegates work that should be done by others.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应由他人完成的工作充分放权。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recognizes how changing one part of the system impacts other parts. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了解变更系统某个部分会对其他部分造成的影响。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Considers long-term implications when making decisions. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定决策时，考虑长期影响。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -241,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -295,6 +371,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1072,8 +1154,8 @@
   </sheetPr>
   <dimension ref="B1:N76"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1407,10 +1489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N75"/>
+  <dimension ref="B1:N72"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1728,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1661,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1671,67 +1753,379 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
+    <row r="17" spans="2:10" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
         <v>31</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
+    <row r="18" spans="2:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="161.83203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5">
         <v>32</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>33</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>34</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>35</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>36</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>37</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="2:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
-        <v>33</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>38</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>34</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>39</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>40</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>42</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>43</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>44</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>45</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>46</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>47</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1786,315 +2180,9 @@
     <row r="73" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:N75"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="161.83203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" s="2" customFormat="1" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
-        <v>35</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
-        <v>36</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
-        <v>37</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <v>38</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
-        <v>39</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>40</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>41</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>42</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>43</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>45</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="2:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
-        <v>46</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="2:14" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>47</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="2:14" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2109,8 +2197,8 @@
   </sheetPr>
   <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2511,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
